--- a/Mifos Automation Excels/Loan Product/4626-EI-DB-SAR-CIFEDIPP-UNCHECKED-DISB-01JAN2015-FC-15JAN2015.xlsx
+++ b/Mifos Automation Excels/Loan Product/4626-EI-DB-SAR-CIFEDIPP-UNCHECKED-DISB-01JAN2015-FC-15JAN2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -706,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
